--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H2">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I2">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J2">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.3792757903497</v>
+        <v>10.4223555</v>
       </c>
       <c r="N2">
-        <v>10.3792757903497</v>
+        <v>20.844711</v>
       </c>
       <c r="O2">
-        <v>0.5267070808686305</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P2">
-        <v>0.5267070808686305</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q2">
-        <v>418.939198503153</v>
+        <v>422.081801537148</v>
       </c>
       <c r="R2">
-        <v>418.939198503153</v>
+        <v>1688.327206148592</v>
       </c>
       <c r="S2">
-        <v>0.2315611241116341</v>
+        <v>0.2227524792531532</v>
       </c>
       <c r="T2">
-        <v>0.2315611241116341</v>
+        <v>0.1515406229206142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H3">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I3">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J3">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.83240741284493</v>
+        <v>2.082668</v>
       </c>
       <c r="N3">
-        <v>1.83240741284493</v>
+        <v>6.248004</v>
       </c>
       <c r="O3">
-        <v>0.09298740864742691</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P3">
-        <v>0.09298740864742691</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q3">
-        <v>73.96154687230127</v>
+        <v>84.343338839648</v>
       </c>
       <c r="R3">
-        <v>73.96154687230127</v>
+        <v>506.060033037888</v>
       </c>
       <c r="S3">
-        <v>0.04088091779422378</v>
+        <v>0.04451195897714351</v>
       </c>
       <c r="T3">
-        <v>0.04088091779422378</v>
+        <v>0.04542286137574609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H4">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I4">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J4">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.8392634676081</v>
+        <v>0.026642</v>
       </c>
       <c r="N4">
-        <v>5.8392634676081</v>
+        <v>0.079926</v>
       </c>
       <c r="O4">
-        <v>0.296319461739929</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P4">
-        <v>0.296319461739929</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q4">
-        <v>235.6904668862314</v>
+        <v>1.078940682512</v>
       </c>
       <c r="R4">
-        <v>235.6904668862314</v>
+        <v>6.473644095072</v>
       </c>
       <c r="S4">
-        <v>0.1302736761075864</v>
+        <v>0.0005694078994199064</v>
       </c>
       <c r="T4">
-        <v>0.1302736761075864</v>
+        <v>0.0005810603863758542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H5">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I5">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J5">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65502685291085</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N5">
-        <v>1.65502685291085</v>
+        <v>18.334645</v>
       </c>
       <c r="O5">
-        <v>0.08398604874401359</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P5">
-        <v>0.08398604874401359</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q5">
-        <v>66.8019269614481</v>
+        <v>247.5038709545734</v>
       </c>
       <c r="R5">
-        <v>66.8019269614481</v>
+        <v>1485.02322572744</v>
       </c>
       <c r="S5">
-        <v>0.03692356636782886</v>
+        <v>0.1306194692097652</v>
       </c>
       <c r="T5">
-        <v>0.03692356636782886</v>
+        <v>0.1332924944043756</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.99620921502984</v>
+        <v>40.497736</v>
       </c>
       <c r="H6">
-        <v>5.99620921502984</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I6">
-        <v>0.06531144975297699</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J6">
-        <v>0.06531144975297699</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.3792757903497</v>
+        <v>1.6551325</v>
       </c>
       <c r="N6">
-        <v>10.3792757903497</v>
+        <v>3.310265</v>
       </c>
       <c r="O6">
-        <v>0.5267070808686305</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P6">
-        <v>0.5267070808686305</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q6">
-        <v>62.23630913943099</v>
+        <v>67.02911903002001</v>
       </c>
       <c r="R6">
-        <v>62.23630913943099</v>
+        <v>268.1164761200801</v>
       </c>
       <c r="S6">
-        <v>0.03440000304668875</v>
+        <v>0.03537442834947144</v>
       </c>
       <c r="T6">
-        <v>0.03440000304668875</v>
+        <v>0.02406555889080483</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H7">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I7">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J7">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.83240741284493</v>
+        <v>10.4223555</v>
       </c>
       <c r="N7">
-        <v>1.83240741284493</v>
+        <v>20.844711</v>
       </c>
       <c r="O7">
-        <v>0.09298740864742691</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P7">
-        <v>0.09298740864742691</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q7">
-        <v>10.98749821458976</v>
+        <v>67.37884336002749</v>
       </c>
       <c r="R7">
-        <v>10.98749821458976</v>
+        <v>404.2730601601649</v>
       </c>
       <c r="S7">
-        <v>0.006073142467535961</v>
+        <v>0.03555899437738501</v>
       </c>
       <c r="T7">
-        <v>0.006073142467535961</v>
+        <v>0.03628668136341247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H8">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I8">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J8">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.8392634676081</v>
+        <v>2.082668</v>
       </c>
       <c r="N8">
-        <v>5.8392634676081</v>
+        <v>6.248004</v>
       </c>
       <c r="O8">
-        <v>0.296319461739929</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P8">
-        <v>0.296319461739929</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q8">
-        <v>35.01344541345878</v>
+        <v>13.46411192200667</v>
       </c>
       <c r="R8">
-        <v>35.01344541345878</v>
+        <v>121.17700729806</v>
       </c>
       <c r="S8">
-        <v>0.01935305363625656</v>
+        <v>0.007105647058571326</v>
       </c>
       <c r="T8">
-        <v>0.01935305363625656</v>
+        <v>0.0108765878454888</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H9">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I9">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J9">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.65502685291085</v>
+        <v>0.026642</v>
       </c>
       <c r="N9">
-        <v>1.65502685291085</v>
+        <v>0.079926</v>
       </c>
       <c r="O9">
-        <v>0.08398604874401359</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P9">
-        <v>0.08398604874401359</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q9">
-        <v>9.923887266545874</v>
+        <v>0.1722362228766667</v>
       </c>
       <c r="R9">
-        <v>9.923887266545874</v>
+        <v>1.55012600589</v>
       </c>
       <c r="S9">
-        <v>0.005485250602495721</v>
+        <v>9.08971804120759E-05</v>
       </c>
       <c r="T9">
-        <v>0.005485250602495721</v>
+        <v>0.0001391359800887671</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.759709191841114</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H10">
-        <v>0.759709191841114</v>
+        <v>19.394515</v>
       </c>
       <c r="I10">
-        <v>0.00827484614536732</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J10">
-        <v>0.00827484614536732</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.3792757903497</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N10">
-        <v>10.3792757903497</v>
+        <v>18.334645</v>
       </c>
       <c r="O10">
-        <v>0.5267070808686305</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P10">
-        <v>0.5267070808686305</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q10">
-        <v>7.88523122258261</v>
+        <v>39.51017194135278</v>
       </c>
       <c r="R10">
-        <v>7.88523122258261</v>
+        <v>355.591547472175</v>
       </c>
       <c r="S10">
-        <v>0.00435842005786346</v>
+        <v>0.02085138170753404</v>
       </c>
       <c r="T10">
-        <v>0.00435842005786346</v>
+        <v>0.03191713336904905</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.759709191841114</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H11">
-        <v>0.759709191841114</v>
+        <v>19.394515</v>
       </c>
       <c r="I11">
-        <v>0.00827484614536732</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J11">
-        <v>0.00827484614536732</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.83240741284493</v>
+        <v>1.6551325</v>
       </c>
       <c r="N11">
-        <v>1.83240741284493</v>
+        <v>3.310265</v>
       </c>
       <c r="O11">
-        <v>0.09298740864742691</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P11">
-        <v>0.09298740864742691</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q11">
-        <v>1.392096754736088</v>
+        <v>10.70016403274583</v>
       </c>
       <c r="R11">
-        <v>1.392096754736088</v>
+        <v>64.20098419647501</v>
       </c>
       <c r="S11">
-        <v>0.0007694565000138563</v>
+        <v>0.0056469813624499</v>
       </c>
       <c r="T11">
-        <v>0.0007694565000138563</v>
+        <v>0.005762542415841438</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H12">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I12">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J12">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.8392634676081</v>
+        <v>10.4223555</v>
       </c>
       <c r="N12">
-        <v>5.8392634676081</v>
+        <v>20.844711</v>
       </c>
       <c r="O12">
-        <v>0.296319461739929</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P12">
-        <v>0.296319461739929</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q12">
-        <v>4.436142129923891</v>
+        <v>7.9656221803695</v>
       </c>
       <c r="R12">
-        <v>4.436142129923891</v>
+        <v>47.793733082217</v>
       </c>
       <c r="S12">
-        <v>0.00245199795577597</v>
+        <v>0.004203834619283035</v>
       </c>
       <c r="T12">
-        <v>0.00245199795577597</v>
+        <v>0.00428986280420295</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,122 +1216,122 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H13">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I13">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J13">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.65502685291085</v>
+        <v>2.082668</v>
       </c>
       <c r="N13">
-        <v>1.65502685291085</v>
+        <v>6.248004</v>
       </c>
       <c r="O13">
-        <v>0.08398604874401359</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P13">
-        <v>0.08398604874401359</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q13">
-        <v>1.257339112900244</v>
+        <v>1.591746358598667</v>
       </c>
       <c r="R13">
-        <v>1.257339112900244</v>
+        <v>14.325717227388</v>
       </c>
       <c r="S13">
-        <v>0.0006949716317140327</v>
+        <v>0.000840039647359271</v>
       </c>
       <c r="T13">
-        <v>0.0006949716317140327</v>
+        <v>0.001285845601798521</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.533709373801184</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H14">
-        <v>0.533709373801184</v>
+        <v>2.292847</v>
       </c>
       <c r="I14">
-        <v>0.005813228274680102</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J14">
-        <v>0.005813228274680102</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>10.3792757903497</v>
+        <v>0.026642</v>
       </c>
       <c r="N14">
-        <v>10.3792757903497</v>
+        <v>0.079926</v>
       </c>
       <c r="O14">
-        <v>0.5267070808686305</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P14">
-        <v>0.5267070808686305</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q14">
-        <v>5.539516782577327</v>
+        <v>0.02036200992466667</v>
       </c>
       <c r="R14">
-        <v>5.539516782577327</v>
+        <v>0.183258089322</v>
       </c>
       <c r="S14">
-        <v>0.003061868494979742</v>
+        <v>1.074599325718055E-05</v>
       </c>
       <c r="T14">
-        <v>0.003061868494979742</v>
+        <v>1.644885239659716E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.533709373801184</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H15">
-        <v>0.533709373801184</v>
+        <v>2.292847</v>
       </c>
       <c r="I15">
-        <v>0.005813228274680102</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J15">
-        <v>0.005813228274680102</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.83240741284493</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N15">
-        <v>1.83240741284493</v>
+        <v>18.334645</v>
       </c>
       <c r="O15">
-        <v>0.09298740864742691</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P15">
-        <v>0.09298740864742691</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q15">
-        <v>0.9779730128581152</v>
+        <v>4.670948420479445</v>
       </c>
       <c r="R15">
-        <v>0.9779730128581152</v>
+        <v>42.03853578431501</v>
       </c>
       <c r="S15">
-        <v>0.0005405570331384551</v>
+        <v>0.002465079843139893</v>
       </c>
       <c r="T15">
-        <v>0.0005405570331384551</v>
+        <v>0.003773288658872058</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.533709373801184</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H16">
-        <v>0.533709373801184</v>
+        <v>2.292847</v>
       </c>
       <c r="I16">
-        <v>0.005813228274680102</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J16">
-        <v>0.005813228274680102</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.8392634676081</v>
+        <v>1.6551325</v>
       </c>
       <c r="N16">
-        <v>5.8392634676081</v>
+        <v>3.310265</v>
       </c>
       <c r="O16">
-        <v>0.296319461739929</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P16">
-        <v>0.296319461739929</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q16">
-        <v>3.116469648757249</v>
+        <v>1.264988529075834</v>
       </c>
       <c r="R16">
-        <v>3.116469648757249</v>
+        <v>7.589931174455001</v>
       </c>
       <c r="S16">
-        <v>0.001722572673324544</v>
+        <v>0.0006675941252436148</v>
       </c>
       <c r="T16">
-        <v>0.001722572673324544</v>
+        <v>0.0006812559164554924</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H17">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I17">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J17">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.65502685291085</v>
+        <v>10.4223555</v>
       </c>
       <c r="N17">
-        <v>1.65502685291085</v>
+        <v>20.844711</v>
       </c>
       <c r="O17">
-        <v>0.08398604874401359</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P17">
-        <v>0.08398604874401359</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q17">
-        <v>0.883303345291194</v>
+        <v>5.584131319211999</v>
       </c>
       <c r="R17">
-        <v>0.883303345291194</v>
+        <v>33.504787915272</v>
       </c>
       <c r="S17">
-        <v>0.0004882300732373611</v>
+        <v>0.002947009540093091</v>
       </c>
       <c r="T17">
-        <v>0.0004882300732373611</v>
+        <v>0.003007317783550852</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.0749538326707</v>
+        <v>0.535784</v>
       </c>
       <c r="H18">
-        <v>33.0749538326707</v>
+        <v>1.607352</v>
       </c>
       <c r="I18">
-        <v>0.3602564733581859</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J18">
-        <v>0.3602564733581859</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.3792757903497</v>
+        <v>2.082668</v>
       </c>
       <c r="N18">
-        <v>10.3792757903497</v>
+        <v>6.248004</v>
       </c>
       <c r="O18">
-        <v>0.5267070808686305</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P18">
-        <v>0.5267070808686305</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q18">
-        <v>343.294067582373</v>
+        <v>1.115860191712</v>
       </c>
       <c r="R18">
-        <v>343.294067582373</v>
+        <v>10.042741725408</v>
       </c>
       <c r="S18">
-        <v>0.1897496354465177</v>
+        <v>0.0005888920661789553</v>
       </c>
       <c r="T18">
-        <v>0.1897496354465177</v>
+        <v>0.0009014149220345087</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.0749538326707</v>
+        <v>0.535784</v>
       </c>
       <c r="H19">
-        <v>33.0749538326707</v>
+        <v>1.607352</v>
       </c>
       <c r="I19">
-        <v>0.3602564733581859</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J19">
-        <v>0.3602564733581859</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.83240741284493</v>
+        <v>0.026642</v>
       </c>
       <c r="N19">
-        <v>1.83240741284493</v>
+        <v>0.079926</v>
       </c>
       <c r="O19">
-        <v>0.09298740864742691</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P19">
-        <v>0.09298740864742691</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q19">
-        <v>60.60679058248962</v>
+        <v>0.014274357328</v>
       </c>
       <c r="R19">
-        <v>60.60679058248962</v>
+        <v>0.128469215952</v>
       </c>
       <c r="S19">
-        <v>0.0334993159060385</v>
+        <v>7.533251784316908E-06</v>
       </c>
       <c r="T19">
-        <v>0.0334993159060385</v>
+        <v>1.153112082811249E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.0749538326707</v>
+        <v>0.535784</v>
       </c>
       <c r="H20">
-        <v>33.0749538326707</v>
+        <v>1.607352</v>
       </c>
       <c r="I20">
-        <v>0.3602564733581859</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J20">
-        <v>0.3602564733581859</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.8392634676081</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N20">
-        <v>5.8392634676081</v>
+        <v>18.334645</v>
       </c>
       <c r="O20">
-        <v>0.296319461739929</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P20">
-        <v>0.296319461739929</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q20">
-        <v>193.1333696079385</v>
+        <v>3.274469812226668</v>
       </c>
       <c r="R20">
-        <v>193.1333696079385</v>
+        <v>29.47022831004001</v>
       </c>
       <c r="S20">
-        <v>0.1067510042738227</v>
+        <v>0.001728092199798152</v>
       </c>
       <c r="T20">
-        <v>0.1067510042738227</v>
+        <v>0.002645184380996778</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.0749538326707</v>
+        <v>0.535784</v>
       </c>
       <c r="H21">
-        <v>33.0749538326707</v>
+        <v>1.607352</v>
       </c>
       <c r="I21">
-        <v>0.3602564733581859</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J21">
-        <v>0.3602564733581859</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.65502685291085</v>
+        <v>1.6551325</v>
       </c>
       <c r="N21">
-        <v>1.65502685291085</v>
+        <v>3.310265</v>
       </c>
       <c r="O21">
-        <v>0.08398604874401359</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P21">
-        <v>0.08398604874401359</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q21">
-        <v>54.73993675185665</v>
+        <v>0.8867935113800002</v>
       </c>
       <c r="R21">
-        <v>54.73993675185665</v>
+        <v>5.32076106828</v>
       </c>
       <c r="S21">
-        <v>0.03025651773180704</v>
+        <v>0.0004680027722733243</v>
       </c>
       <c r="T21">
-        <v>0.03025651773180704</v>
+        <v>0.0004775800826773739</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.0818355071188</v>
+        <v>33.754358</v>
       </c>
       <c r="H22">
-        <v>11.0818355071188</v>
+        <v>101.263074</v>
       </c>
       <c r="I22">
-        <v>0.1207047180875166</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J22">
-        <v>0.1207047180875166</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.3792757903497</v>
+        <v>10.4223555</v>
       </c>
       <c r="N22">
-        <v>10.3792757903497</v>
+        <v>20.844711</v>
       </c>
       <c r="O22">
-        <v>0.5267070808686305</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P22">
-        <v>0.5267070808686305</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q22">
-        <v>115.0214269916759</v>
+        <v>351.799918750269</v>
       </c>
       <c r="R22">
-        <v>115.0214269916759</v>
+        <v>2110.799512501614</v>
       </c>
       <c r="S22">
-        <v>0.06357602971094684</v>
+        <v>0.1856614140133292</v>
       </c>
       <c r="T22">
-        <v>0.06357602971094684</v>
+        <v>0.189460829524103</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.0818355071188</v>
+        <v>33.754358</v>
       </c>
       <c r="H23">
-        <v>11.0818355071188</v>
+        <v>101.263074</v>
       </c>
       <c r="I23">
-        <v>0.1207047180875166</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J23">
-        <v>0.1207047180875166</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.83240741284493</v>
+        <v>2.082668</v>
       </c>
       <c r="N23">
-        <v>1.83240741284493</v>
+        <v>6.248004</v>
       </c>
       <c r="O23">
-        <v>0.09298740864742691</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P23">
-        <v>0.09298740864742691</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q23">
-        <v>20.30643753117264</v>
+        <v>70.299121267144</v>
       </c>
       <c r="R23">
-        <v>20.30643753117264</v>
+        <v>632.692091404296</v>
       </c>
       <c r="S23">
-        <v>0.01122401894647636</v>
+        <v>0.03710016279912082</v>
       </c>
       <c r="T23">
-        <v>0.01122401894647636</v>
+        <v>0.05678908288581758</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.0818355071188</v>
+        <v>33.754358</v>
       </c>
       <c r="H24">
-        <v>11.0818355071188</v>
+        <v>101.263074</v>
       </c>
       <c r="I24">
-        <v>0.1207047180875166</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J24">
-        <v>0.1207047180875166</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>5.8392634676081</v>
+        <v>0.026642</v>
       </c>
       <c r="N24">
-        <v>5.8392634676081</v>
+        <v>0.079926</v>
       </c>
       <c r="O24">
-        <v>0.296319461739929</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P24">
-        <v>0.296319461739929</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q24">
-        <v>64.70975723076108</v>
+        <v>0.8992836058360001</v>
       </c>
       <c r="R24">
-        <v>64.70975723076108</v>
+        <v>8.093552452523999</v>
       </c>
       <c r="S24">
-        <v>0.03576715709316278</v>
+        <v>0.0004745943843637954</v>
       </c>
       <c r="T24">
-        <v>0.03576715709316278</v>
+        <v>0.0007264598804245094</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>33.754358</v>
+      </c>
+      <c r="H25">
+        <v>101.263074</v>
+      </c>
+      <c r="I25">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J25">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N25">
+        <v>18.334645</v>
+      </c>
+      <c r="O25">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P25">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q25">
+        <v>206.2913903776367</v>
+      </c>
+      <c r="R25">
+        <v>1856.62251339873</v>
+      </c>
+      <c r="S25">
+        <v>0.1088696989253027</v>
+      </c>
+      <c r="T25">
+        <v>0.1666464481436057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>33.754358</v>
+      </c>
+      <c r="H26">
+        <v>101.263074</v>
+      </c>
+      <c r="I26">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J26">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.6551325</v>
+      </c>
+      <c r="N26">
+        <v>3.310265</v>
+      </c>
+      <c r="O26">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P26">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q26">
+        <v>55.86793494243501</v>
+      </c>
+      <c r="R26">
+        <v>335.2076096546101</v>
+      </c>
+      <c r="S26">
+        <v>0.02948414495450828</v>
+      </c>
+      <c r="T26">
+        <v>0.03008751490220252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>11.0818355071188</v>
-      </c>
-      <c r="H25">
-        <v>11.0818355071188</v>
-      </c>
-      <c r="I25">
-        <v>0.1207047180875166</v>
-      </c>
-      <c r="J25">
-        <v>0.1207047180875166</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.65502685291085</v>
-      </c>
-      <c r="N25">
-        <v>1.65502685291085</v>
-      </c>
-      <c r="O25">
-        <v>0.08398604874401359</v>
-      </c>
-      <c r="P25">
-        <v>0.08398604874401359</v>
-      </c>
-      <c r="Q25">
-        <v>18.34073534382254</v>
-      </c>
-      <c r="R25">
-        <v>18.34073534382254</v>
-      </c>
-      <c r="S25">
-        <v>0.01013751233693059</v>
-      </c>
-      <c r="T25">
-        <v>0.01013751233693059</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11.332808</v>
+      </c>
+      <c r="H27">
+        <v>22.665616</v>
+      </c>
+      <c r="I27">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J27">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>10.4223555</v>
+      </c>
+      <c r="N27">
+        <v>20.844711</v>
+      </c>
+      <c r="O27">
+        <v>0.5134583541362047</v>
+      </c>
+      <c r="P27">
+        <v>0.4269921487868164</v>
+      </c>
+      <c r="Q27">
+        <v>118.114553789244</v>
+      </c>
+      <c r="R27">
+        <v>472.4582151569759</v>
+      </c>
+      <c r="S27">
+        <v>0.06233462233296123</v>
+      </c>
+      <c r="T27">
+        <v>0.04240683439093287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>11.332808</v>
+      </c>
+      <c r="H28">
+        <v>22.665616</v>
+      </c>
+      <c r="I28">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J28">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.082668</v>
+      </c>
+      <c r="N28">
+        <v>6.248004</v>
+      </c>
+      <c r="O28">
+        <v>0.1026028409309336</v>
+      </c>
+      <c r="P28">
+        <v>0.1279868381762944</v>
+      </c>
+      <c r="Q28">
+        <v>23.602476571744</v>
+      </c>
+      <c r="R28">
+        <v>141.614859430464</v>
+      </c>
+      <c r="S28">
+        <v>0.01245614038255975</v>
+      </c>
+      <c r="T28">
+        <v>0.01271104554540891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>11.332808</v>
+      </c>
+      <c r="H29">
+        <v>22.665616</v>
+      </c>
+      <c r="I29">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J29">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.026642</v>
+      </c>
+      <c r="N29">
+        <v>0.079926</v>
+      </c>
+      <c r="O29">
+        <v>0.001312520712894198</v>
+      </c>
+      <c r="P29">
+        <v>0.001637239033150188</v>
+      </c>
+      <c r="Q29">
+        <v>0.301928670736</v>
+      </c>
+      <c r="R29">
+        <v>1.811572024416</v>
+      </c>
+      <c r="S29">
+        <v>0.0001593420036569232</v>
+      </c>
+      <c r="T29">
+        <v>0.0001626028130363477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11.332808</v>
+      </c>
+      <c r="H30">
+        <v>22.665616</v>
+      </c>
+      <c r="I30">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J30">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N30">
+        <v>18.334645</v>
+      </c>
+      <c r="O30">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P30">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q30">
+        <v>69.26100384438668</v>
+      </c>
+      <c r="R30">
+        <v>415.56602306632</v>
+      </c>
+      <c r="S30">
+        <v>0.03655229925979517</v>
+      </c>
+      <c r="T30">
+        <v>0.03730031345272888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.332808</v>
+      </c>
+      <c r="H31">
+        <v>22.665616</v>
+      </c>
+      <c r="I31">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J31">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.6551325</v>
+      </c>
+      <c r="N31">
+        <v>3.310265</v>
+      </c>
+      <c r="O31">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P31">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q31">
+        <v>18.75729883706</v>
+      </c>
+      <c r="R31">
+        <v>75.02919534824001</v>
+      </c>
+      <c r="S31">
+        <v>0.00989911151068585</v>
+      </c>
+      <c r="T31">
+        <v>0.00673445938612924</v>
       </c>
     </row>
   </sheetData>
